--- a/ViolationCodes.xlsx
+++ b/ViolationCodes.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chrisfan\Documents\GitHub\Data_Mining_Final_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="19080" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="ViolationCodes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="144">
   <si>
     <t>Failure of an intercity bus to prominently display a copy of an intercity bus permit.</t>
   </si>
@@ -324,6 +322,138 @@
   </si>
   <si>
     <t>vary</t>
+  </si>
+  <si>
+    <t>VIOLATION_CODE</t>
+  </si>
+  <si>
+    <t>FOR BUS</t>
+  </si>
+  <si>
+    <t>ILLEGAL PARK ON BUS</t>
+  </si>
+  <si>
+    <t>RIGHT TURN</t>
+  </si>
+  <si>
+    <t>PARKING</t>
+  </si>
+  <si>
+    <t>IDENTIFICATION</t>
+  </si>
+  <si>
+    <t>TRAFFIC</t>
+  </si>
+  <si>
+    <t>RED LIGHT</t>
+  </si>
+  <si>
+    <t>TRACTOR ON RESIDENTIAL</t>
+  </si>
+  <si>
+    <t>RESTRICTED</t>
+  </si>
+  <si>
+    <t>BLOCK CROSS</t>
+  </si>
+  <si>
+    <t>NO PARKING</t>
+  </si>
+  <si>
+    <t>NO PARKING ON LANDING ZONES</t>
+  </si>
+  <si>
+    <t>NO STOPPING AT CROSS</t>
+  </si>
+  <si>
+    <t>NO PARKING SNOW</t>
+  </si>
+  <si>
+    <t>NO PARKING ON TAXI ZONE</t>
+  </si>
+  <si>
+    <t>NO PARKING HERE</t>
+  </si>
+  <si>
+    <t>NO PARKING BUS LANE</t>
+  </si>
+  <si>
+    <t>NO PARKING AUTHORIZED VEHICULES</t>
+  </si>
+  <si>
+    <t>NO PARKING LOADING ZONE</t>
+  </si>
+  <si>
+    <t>NO PARKING BUS STOP</t>
+  </si>
+  <si>
+    <t>NO PARKING STREET CLEANING</t>
+  </si>
+  <si>
+    <t>NO PARKING LOADING</t>
+  </si>
+  <si>
+    <t>NO PARKING DRIVEWAY</t>
+  </si>
+  <si>
+    <t>NO PARKING VACANT LOT</t>
+  </si>
+  <si>
+    <t>NO PARKING RAILROAD</t>
+  </si>
+  <si>
+    <t>CHANGING TIRE</t>
+  </si>
+  <si>
+    <t>TECHNICLITY</t>
+  </si>
+  <si>
+    <t>NO PARKING WASH</t>
+  </si>
+  <si>
+    <t>NO PARKING SELL</t>
+  </si>
+  <si>
+    <t>MULTIMETER RECEIPT</t>
+  </si>
+  <si>
+    <t>WRONG PARKING</t>
+  </si>
+  <si>
+    <t>NO PARKING DIPLOMATS</t>
+  </si>
+  <si>
+    <t>STANDING</t>
+  </si>
+  <si>
+    <t>OVERTIME STANFING</t>
+  </si>
+  <si>
+    <t>NO PARKING TRAILER</t>
+  </si>
+  <si>
+    <t>PARKING CURBLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) parking during street cleaning hours, the single most common violation, comprising nearly 16% of tickets; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2) stopping, standing, or parking in illegal areas, or at certain hours; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3) parking in illegal ways or blocking access or traffic (e.g., double parking, parking the wrong way or at an angle); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4) parking beyond the time allowed by regulation or by the meter; and </t>
+  </si>
+  <si>
+    <t>(5) parking without proper registration, documentation, or with damaged license plates, etc.</t>
+  </si>
+  <si>
+    <t>STREET CLEANING</t>
+  </si>
+  <si>
+    <t>ILLEGAL HOURS/AREAS</t>
   </si>
 </sst>
 </file>
@@ -333,7 +463,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +477,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -356,7 +502,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -475,13 +621,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -490,7 +670,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -502,20 +703,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -523,35 +718,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -610,7 +788,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -645,7 +823,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -822,7 +1000,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -830,1482 +1008,1713 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" ht="51" customHeight="1">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4">
+      <c r="C2" s="7"/>
+      <c r="D2" s="2">
         <v>515</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E2" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="63.75" customHeight="1">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4">
+      <c r="C3" s="7"/>
+      <c r="D3" s="2">
         <v>515</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E3" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51" customHeight="1">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4">
+      <c r="C4" s="7"/>
+      <c r="D4" s="2">
         <v>515</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E4" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="191.25" customHeight="1">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4">
-        <v>115</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="2">
+        <v>115</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="38.25" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4">
-        <v>115</v>
-      </c>
-      <c r="E5" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="2">
+        <v>115</v>
+      </c>
+      <c r="E6" s="2">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="19"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="E8" s="15"/>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51" customHeight="1">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="E10" s="2">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4">
-        <v>115</v>
-      </c>
-      <c r="E10" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="C11" s="7"/>
+      <c r="D11" s="2">
+        <v>115</v>
+      </c>
+      <c r="E11" s="2">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4">
-        <v>115</v>
-      </c>
-      <c r="E11" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="C12" s="7"/>
+      <c r="D12" s="2">
+        <v>115</v>
+      </c>
+      <c r="E12" s="2">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="89.25" customHeight="1">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4">
-        <v>115</v>
-      </c>
-      <c r="E12" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="C13" s="7"/>
+      <c r="D13" s="2">
+        <v>115</v>
+      </c>
+      <c r="E13" s="2">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4">
+      <c r="C14" s="7"/>
+      <c r="D14" s="2">
         <v>95</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4">
-        <v>115</v>
-      </c>
-      <c r="E14" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="C15" s="7"/>
+      <c r="D15" s="2">
+        <v>115</v>
+      </c>
+      <c r="E15" s="2">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="89.25" customHeight="1">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4">
-        <v>115</v>
-      </c>
-      <c r="E15" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="C16" s="7"/>
+      <c r="D16" s="2">
+        <v>115</v>
+      </c>
+      <c r="E16" s="2">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="89.25" customHeight="1">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4">
+      <c r="C17" s="7"/>
+      <c r="D17" s="2">
         <v>95</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="F17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="89.25" customHeight="1">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4">
+      <c r="C18" s="7"/>
+      <c r="D18" s="2">
         <v>95</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4">
-        <v>115</v>
-      </c>
-      <c r="E18" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="C19" s="7"/>
+      <c r="D19" s="2">
+        <v>115</v>
+      </c>
+      <c r="E19" s="2">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4">
-        <v>115</v>
-      </c>
-      <c r="E19" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="C20" s="7"/>
+      <c r="D20" s="2">
+        <v>115</v>
+      </c>
+      <c r="E20" s="2">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4">
-        <v>65</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="C21" s="7"/>
+      <c r="D21" s="2">
+        <v>65</v>
+      </c>
+      <c r="E21" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4">
-        <v>65</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="C22" s="7"/>
+      <c r="D22" s="2">
+        <v>65</v>
+      </c>
+      <c r="E22" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="F22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="89.25" customHeight="1">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4">
+      <c r="C23" s="7"/>
+      <c r="D23" s="2">
         <v>60</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="F23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4">
-        <v>65</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="C24" s="7"/>
+      <c r="D24" s="2">
+        <v>65</v>
+      </c>
+      <c r="E24" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19">
-        <v>65</v>
-      </c>
-      <c r="E24" s="19">
+      <c r="C25" s="11"/>
+      <c r="D25" s="3">
+        <v>65</v>
+      </c>
+      <c r="E25" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="26" spans="1:7" ht="102" customHeight="1">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4">
-        <v>115</v>
-      </c>
-      <c r="E25" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="C26" s="7"/>
+      <c r="D26" s="2">
+        <v>115</v>
+      </c>
+      <c r="E26" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="89.25" customHeight="1">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4">
-        <v>115</v>
-      </c>
-      <c r="E26" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="C27" s="7"/>
+      <c r="D27" s="2">
+        <v>115</v>
+      </c>
+      <c r="E27" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="140.25" customHeight="1">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4">
+      <c r="C28" s="7"/>
+      <c r="D28" s="2">
         <v>180</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="29" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4">
+      <c r="C29" s="7"/>
+      <c r="D29" s="2">
         <v>95</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="30" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4">
+      <c r="C30" s="7"/>
+      <c r="D30" s="2">
         <v>515</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="31" spans="1:7" ht="114.75" customHeight="1">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4">
+      <c r="C31" s="7"/>
+      <c r="D31" s="2">
         <v>515</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="32" spans="1:7" ht="51" customHeight="1">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4">
-        <v>115</v>
-      </c>
-      <c r="E31" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="C32" s="7"/>
+      <c r="D32" s="2">
+        <v>115</v>
+      </c>
+      <c r="E32" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="63.75" customHeight="1">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4">
-        <v>65</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="C33" s="7"/>
+      <c r="D33" s="2">
+        <v>65</v>
+      </c>
+      <c r="E33" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="34" spans="1:5" ht="140.25" customHeight="1">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4">
-        <v>65</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="C34" s="7"/>
+      <c r="D34" s="2">
+        <v>65</v>
+      </c>
+      <c r="E34" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="35" spans="1:5" ht="242.25" customHeight="1">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4">
-        <v>65</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="C35" s="7"/>
+      <c r="D35" s="2">
+        <v>65</v>
+      </c>
+      <c r="E35" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="36" spans="1:5" ht="89.25" customHeight="1">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4">
-        <v>65</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="C36" s="7"/>
+      <c r="D36" s="2">
+        <v>65</v>
+      </c>
+      <c r="E36" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:5" ht="51" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="1" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+    <row r="38" spans="1:5" ht="51" customHeight="1">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B38" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23">
-        <v>65</v>
-      </c>
-      <c r="E37" s="23">
+      <c r="C38" s="9"/>
+      <c r="D38" s="5">
+        <v>65</v>
+      </c>
+      <c r="E38" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
+    <row r="39" spans="1:5" ht="51" customHeight="1">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23">
-        <v>65</v>
-      </c>
-      <c r="E38" s="23">
+      <c r="C39" s="9"/>
+      <c r="D39" s="5">
+        <v>65</v>
+      </c>
+      <c r="E39" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="40" spans="1:5" ht="76.5" customHeight="1">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4">
-        <v>65</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="C40" s="7"/>
+      <c r="D40" s="2">
+        <v>65</v>
+      </c>
+      <c r="E40" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="41" spans="1:5" ht="165.75" customHeight="1">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4">
-        <v>115</v>
-      </c>
-      <c r="E40" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="C41" s="7"/>
+      <c r="D41" s="2">
+        <v>115</v>
+      </c>
+      <c r="E41" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="102" customHeight="1">
+      <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4">
-        <v>65</v>
-      </c>
-      <c r="E41" s="4">
+      <c r="C42" s="7"/>
+      <c r="D42" s="2">
+        <v>65</v>
+      </c>
+      <c r="E42" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="43" spans="1:5" ht="140.25" customHeight="1">
+      <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4">
-        <v>65</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="C43" s="7"/>
+      <c r="D43" s="2">
+        <v>65</v>
+      </c>
+      <c r="E43" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="44" spans="1:5" ht="63.75" customHeight="1">
+      <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4">
-        <v>65</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="C44" s="7"/>
+      <c r="D44" s="2">
+        <v>65</v>
+      </c>
+      <c r="E44" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="45" spans="1:5" ht="89.25" customHeight="1">
+      <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4">
-        <v>115</v>
-      </c>
-      <c r="E44" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="C45" s="7"/>
+      <c r="D45" s="2">
+        <v>115</v>
+      </c>
+      <c r="E45" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="409.5" customHeight="1">
+      <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4">
-        <v>115</v>
-      </c>
-      <c r="E45" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="C46" s="7"/>
+      <c r="D46" s="2">
+        <v>115</v>
+      </c>
+      <c r="E46" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="127.5" customHeight="1">
+      <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4">
-        <v>115</v>
-      </c>
-      <c r="E46" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="C47" s="7"/>
+      <c r="D47" s="2">
+        <v>115</v>
+      </c>
+      <c r="E47" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="51" customHeight="1">
+      <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="4">
-        <v>115</v>
-      </c>
-      <c r="E47" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="C48" s="7"/>
+      <c r="D48" s="2">
+        <v>115</v>
+      </c>
+      <c r="E48" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="89.25" customHeight="1">
+      <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="4">
+      <c r="C49" s="7"/>
+      <c r="D49" s="2">
         <v>95</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E49" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="50" spans="1:9" ht="89.25" customHeight="1">
+      <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4">
-        <v>115</v>
-      </c>
-      <c r="E49" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="C50" s="7"/>
+      <c r="D50" s="2">
+        <v>115</v>
+      </c>
+      <c r="E50" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A51" s="1">
         <v>51</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4">
-        <v>115</v>
-      </c>
-      <c r="E50" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="C51" s="7"/>
+      <c r="D51" s="2">
+        <v>115</v>
+      </c>
+      <c r="E51" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A52" s="1">
         <v>52</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4">
-        <v>115</v>
-      </c>
-      <c r="E51" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="C52" s="7"/>
+      <c r="D52" s="2">
+        <v>115</v>
+      </c>
+      <c r="E52" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="114.75" customHeight="1">
+      <c r="A53" s="1">
         <v>53</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4">
-        <v>115</v>
-      </c>
-      <c r="E52" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="C53" s="7"/>
+      <c r="D53" s="2">
+        <v>115</v>
+      </c>
+      <c r="E53" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="63.75" customHeight="1">
+      <c r="A54" s="1">
         <v>55</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="4">
-        <v>115</v>
-      </c>
-      <c r="E53" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="C54" s="7"/>
+      <c r="D54" s="2">
+        <v>115</v>
+      </c>
+      <c r="E54" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="63.75" customHeight="1">
+      <c r="A55" s="1">
         <v>56</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="4">
-        <v>115</v>
-      </c>
-      <c r="E54" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="255" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="C55" s="7"/>
+      <c r="D55" s="2">
+        <v>115</v>
+      </c>
+      <c r="E55" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="255" customHeight="1">
+      <c r="A56" s="1">
         <v>57</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4">
-        <v>65</v>
-      </c>
-      <c r="E55" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="C56" s="7"/>
+      <c r="D56" s="2">
+        <v>65</v>
+      </c>
+      <c r="E56" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="165.75" customHeight="1">
+      <c r="A57" s="1">
         <v>58</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4">
-        <v>65</v>
-      </c>
-      <c r="E56" s="4">
+      <c r="C57" s="7"/>
+      <c r="D57" s="2">
+        <v>65</v>
+      </c>
+      <c r="E57" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="58" spans="1:9" ht="178.5" customHeight="1">
+      <c r="A58" s="1">
         <v>59</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="4">
-        <v>115</v>
-      </c>
-      <c r="E57" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="C58" s="7"/>
+      <c r="D58" s="2">
+        <v>115</v>
+      </c>
+      <c r="E58" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="63.75" customHeight="1">
+      <c r="A59" s="1">
         <v>60</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="4">
-        <v>65</v>
-      </c>
-      <c r="E58" s="4">
+      <c r="C59" s="7"/>
+      <c r="D59" s="2">
+        <v>65</v>
+      </c>
+      <c r="E59" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="H59" t="s">
+        <v>137</v>
+      </c>
+      <c r="I59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="102" customHeight="1">
+      <c r="A60" s="1">
         <v>61</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="4">
-        <v>65</v>
-      </c>
-      <c r="E59" s="4">
+      <c r="B60" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="2">
+        <v>65</v>
+      </c>
+      <c r="E60" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="F60" t="s">
+        <v>136</v>
+      </c>
+      <c r="H60" t="s">
+        <v>138</v>
+      </c>
+      <c r="I60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="242.25" customHeight="1">
+      <c r="A61" s="1">
         <v>62</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="4">
-        <v>65</v>
-      </c>
-      <c r="E60" s="4">
+      <c r="C61" s="7"/>
+      <c r="D61" s="2">
+        <v>65</v>
+      </c>
+      <c r="E61" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="H61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="114.75" customHeight="1">
+      <c r="A62" s="1">
         <v>63</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="4">
+      <c r="C62" s="7"/>
+      <c r="D62" s="2">
         <v>95</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E62" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="H62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="51" customHeight="1">
+      <c r="A63" s="1">
         <v>64</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="4">
+      <c r="C63" s="7"/>
+      <c r="D63" s="2">
         <v>95</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E63" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>65</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="F63" t="s">
+        <v>132</v>
+      </c>
+      <c r="H63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="51" customHeight="1">
+      <c r="A64" s="1">
+        <v>65</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="4">
+      <c r="C64" s="7"/>
+      <c r="D64" s="2">
         <v>95</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E64" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="F64" t="s">
+        <v>134</v>
+      </c>
+      <c r="G64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="102" customHeight="1">
+      <c r="A65" s="1">
         <v>66</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="4">
-        <v>65</v>
-      </c>
-      <c r="E64" s="4">
+      <c r="C65" s="7"/>
+      <c r="D65" s="2">
+        <v>65</v>
+      </c>
+      <c r="E65" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="F65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A66" s="1">
         <v>67</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="4">
+      <c r="C66" s="7"/>
+      <c r="D66" s="2">
         <v>165</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E66" s="2">
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="67" spans="1:7" ht="38.25" customHeight="1">
+      <c r="A67" s="1">
         <v>68</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="4">
-        <v>65</v>
-      </c>
-      <c r="E66" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="C67" s="7"/>
+      <c r="D67" s="2">
+        <v>65</v>
+      </c>
+      <c r="E67" s="2">
+        <v>65</v>
+      </c>
+      <c r="F67" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="51" customHeight="1">
+      <c r="A68" s="1">
         <v>69</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="4">
-        <v>65</v>
-      </c>
-      <c r="E67" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="C68" s="7"/>
+      <c r="D68" s="2">
+        <v>65</v>
+      </c>
+      <c r="E68" s="2">
+        <v>65</v>
+      </c>
+      <c r="F68" t="s">
+        <v>130</v>
+      </c>
+      <c r="G68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="63.75" customHeight="1">
+      <c r="A69" s="1">
         <v>70</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="4">
-        <v>65</v>
-      </c>
-      <c r="E68" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="C69" s="7"/>
+      <c r="D69" s="2">
+        <v>65</v>
+      </c>
+      <c r="E69" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="63.75" customHeight="1">
+      <c r="A70" s="1">
         <v>71</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="4">
-        <v>65</v>
-      </c>
-      <c r="E69" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="C70" s="7"/>
+      <c r="D70" s="2">
+        <v>65</v>
+      </c>
+      <c r="E70" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="63.75" customHeight="1">
+      <c r="A71" s="1">
         <v>72</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="4">
-        <v>65</v>
-      </c>
-      <c r="E70" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="C71" s="7"/>
+      <c r="D71" s="2">
+        <v>65</v>
+      </c>
+      <c r="E71" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A72" s="1">
         <v>73</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="4">
-        <v>65</v>
-      </c>
-      <c r="E71" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="C72" s="7"/>
+      <c r="D72" s="2">
+        <v>65</v>
+      </c>
+      <c r="E72" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="178.5" customHeight="1">
+      <c r="A73" s="1">
         <v>74</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="4">
-        <v>65</v>
-      </c>
-      <c r="E72" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+      <c r="C73" s="7"/>
+      <c r="D73" s="2">
+        <v>65</v>
+      </c>
+      <c r="E73" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="114.75" customHeight="1">
+      <c r="A74" s="1">
         <v>75</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="4">
-        <v>65</v>
-      </c>
-      <c r="E73" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="C74" s="7"/>
+      <c r="D74" s="2">
+        <v>65</v>
+      </c>
+      <c r="E74" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="140.25" customHeight="1">
+      <c r="A75" s="1">
         <v>77</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="4">
-        <v>65</v>
-      </c>
-      <c r="E74" s="4">
+      <c r="C75" s="7"/>
+      <c r="D75" s="2">
+        <v>65</v>
+      </c>
+      <c r="E75" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="76" spans="1:7" ht="204" customHeight="1">
+      <c r="A76" s="1">
         <v>78</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="4">
-        <v>65</v>
-      </c>
-      <c r="E75" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="C76" s="7"/>
+      <c r="D76" s="2">
+        <v>65</v>
+      </c>
+      <c r="E76" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="178.5" customHeight="1">
+      <c r="A77" s="1">
         <v>79</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="4">
-        <v>115</v>
-      </c>
-      <c r="E76" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+      <c r="C77" s="7"/>
+      <c r="D77" s="2">
+        <v>115</v>
+      </c>
+      <c r="E77" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="63.75" customHeight="1">
+      <c r="A78" s="1">
         <v>80</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="4">
+      <c r="C78" s="7"/>
+      <c r="D78" s="2">
         <v>60</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row r="79" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A79" s="1">
         <v>81</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="4">
+      <c r="C79" s="7"/>
+      <c r="D79" s="2">
         <v>95</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E79" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="293.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row r="80" spans="1:7" ht="293.25" customHeight="1">
+      <c r="A80" s="1">
         <v>82</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="4">
-        <v>115</v>
-      </c>
-      <c r="E79" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+      <c r="C80" s="7"/>
+      <c r="D80" s="2">
+        <v>115</v>
+      </c>
+      <c r="E80" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="38.25" customHeight="1">
+      <c r="A81" s="1">
         <v>83</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="4">
-        <v>65</v>
-      </c>
-      <c r="E80" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="C81" s="7"/>
+      <c r="D81" s="2">
+        <v>65</v>
+      </c>
+      <c r="E81" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="89.25" customHeight="1">
+      <c r="A82" s="1">
         <v>84</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="4">
-        <v>65</v>
-      </c>
-      <c r="E81" s="4">
+      <c r="C82" s="7"/>
+      <c r="D82" s="2">
+        <v>65</v>
+      </c>
+      <c r="E82" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+    <row r="83" spans="1:7" ht="63.75" customHeight="1">
+      <c r="A83" s="1">
         <v>85</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B83" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="4">
-        <v>65</v>
-      </c>
-      <c r="E82" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="C83" s="7"/>
+      <c r="D83" s="2">
+        <v>65</v>
+      </c>
+      <c r="E83" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="178.5" customHeight="1">
+      <c r="A84" s="1">
         <v>86</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B84" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="4">
-        <v>115</v>
-      </c>
-      <c r="E83" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="C84" s="7"/>
+      <c r="D84" s="2">
+        <v>115</v>
+      </c>
+      <c r="E84" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="242.25" customHeight="1">
+      <c r="A85" s="1">
         <v>89</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="4">
-        <v>115</v>
-      </c>
-      <c r="E84" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+      <c r="C85" s="7"/>
+      <c r="D85" s="2">
+        <v>115</v>
+      </c>
+      <c r="E85" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="63.75" customHeight="1">
+      <c r="A86" s="1">
         <v>91</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="4">
-        <v>65</v>
-      </c>
-      <c r="E85" s="4">
+      <c r="C86" s="7"/>
+      <c r="D86" s="2">
+        <v>65</v>
+      </c>
+      <c r="E86" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="F86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A87" s="1">
         <v>92</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="4">
-        <v>65</v>
-      </c>
-      <c r="E86" s="4">
+      <c r="C87" s="7"/>
+      <c r="D87" s="2">
+        <v>65</v>
+      </c>
+      <c r="E87" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+      <c r="F87" t="s">
+        <v>128</v>
+      </c>
+      <c r="G87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A88" s="1">
         <v>93</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B88" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="4">
-        <v>65</v>
-      </c>
-      <c r="E87" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="20">
+      <c r="C88" s="7"/>
+      <c r="D88" s="2">
+        <v>65</v>
+      </c>
+      <c r="E88" s="2">
+        <v>65</v>
+      </c>
+      <c r="F88" t="s">
+        <v>126</v>
+      </c>
+      <c r="G88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="76.5" customHeight="1">
+      <c r="A89" s="4">
         <v>94</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B89" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="23">
+      <c r="C89" s="9"/>
+      <c r="D89" s="5">
         <v>100</v>
       </c>
-      <c r="E88" s="23">
+      <c r="E89" s="5">
         <v>200</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="G89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="51" customHeight="1">
+      <c r="A90" s="1">
         <v>96</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B90" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="4">
+      <c r="C90" s="7"/>
+      <c r="D90" s="2">
         <v>95</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E90" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="F90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="114.75" customHeight="1">
+      <c r="A91" s="1">
         <v>97</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B91" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="4">
-        <v>65</v>
-      </c>
-      <c r="E90" s="4">
+      <c r="C91" s="7"/>
+      <c r="D91" s="2">
+        <v>65</v>
+      </c>
+      <c r="E91" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="F91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="216.75" customHeight="1">
+      <c r="A92" s="1">
         <v>98</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B92" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="4">
+      <c r="C92" s="7"/>
+      <c r="D92" s="2">
         <v>95</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E92" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="F92" t="s">
+        <v>123</v>
+      </c>
+      <c r="G92" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="38.25" customHeight="1">
+      <c r="A93" s="1">
         <v>99</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B93" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="1" t="s">
+      <c r="C93" s="7"/>
+      <c r="D93" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
+  <mergeCells count="95">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>